--- a/pubmed_validation_sheets/16496080 DISNET VALIDATION.xlsx
+++ b/pubmed_validation_sheets/16496080 DISNET VALIDATION.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/DISNET/CURRENT/pubmed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/DISNET_VALIDATION/pubmed/1.Validated/OK_DISNET_VALIDATION_PUBMED_(100)_v0.2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{06D11761-8552-E940-BA94-F1E27D24CB3E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F6953F-30A0-384F-BF2E-B2C986242330}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38480" yWindow="460" windowWidth="20560" windowHeight="21040" xr2:uid="{6E52D1B4-F9CB-4441-9081-5C2868523BBB}"/>
+    <workbookView xWindow="5040" yWindow="460" windowWidth="20560" windowHeight="15460" xr2:uid="{6E52D1B4-F9CB-4441-9081-5C2868523BBB}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VALIDATION!$A$3:$I$3</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -276,7 +279,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -557,7 +560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -611,6 +614,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,7 +635,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -925,13 +931,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F743750-5540-5B42-BCD9-474CEE4AA1C7}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1"/>
@@ -941,9 +947,10 @@
     <col min="6" max="7" width="9.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="131" customHeight="1" thickBot="1">
+    <row r="1" spans="1:14" ht="131" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="19" t="s">
         <v>14</v>
       </c>
@@ -955,7 +962,7 @@
       <c r="H1" s="19"/>
       <c r="I1" s="19"/>
     </row>
-    <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1">
+    <row r="2" spans="1:14" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -973,7 +980,7 @@
       <c r="H2" s="23"/>
       <c r="I2" s="24"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -999,18 +1006,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E4" s="10" t="b">
         <v>1</v>
@@ -1027,22 +1034,26 @@
       <c r="I4" s="14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E5" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>11</v>
@@ -1051,21 +1062,25 @@
         <v>11</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>22</v>
@@ -1085,22 +1100,26 @@
       <c r="I6" s="14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E7" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>11</v>
@@ -1109,21 +1128,25 @@
         <v>11</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>17</v>
@@ -1141,10 +1164,14 @@
         <v>11</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1172,22 +1199,26 @@
       <c r="I9" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E10" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>11</v>
@@ -1196,27 +1227,31 @@
         <v>11</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>11</v>
@@ -1225,56 +1260,64 @@
         <v>11</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="E13" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>11</v>
@@ -1283,21 +1326,25 @@
         <v>11</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>17</v>
@@ -1315,24 +1362,28 @@
         <v>12</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>11</v>
@@ -1341,24 +1392,28 @@
         <v>11</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E16" s="10" t="b">
         <v>0</v>
@@ -1375,19 +1430,23 @@
       <c r="I16" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E17" s="10" t="b">
         <v>0</v>
@@ -1404,8 +1463,12 @@
       <c r="I17" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1433,19 +1496,23 @@
       <c r="I18" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="E19" s="10" t="b">
         <v>0</v>
@@ -1462,22 +1529,26 @@
       <c r="I19" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E20" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>11</v>
@@ -1486,24 +1557,28 @@
         <v>11</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="E21" s="10" t="b">
         <v>0</v>
@@ -1520,16 +1595,20 @@
       <c r="I21" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>17</v>
@@ -1549,19 +1628,23 @@
       <c r="I22" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E23" s="10" t="b">
         <v>0</v>
@@ -1578,22 +1661,26 @@
       <c r="I23" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>11</v>
@@ -1602,27 +1689,31 @@
         <v>11</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>11</v>
@@ -1631,27 +1722,31 @@
         <v>11</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>11</v>
@@ -1660,21 +1755,25 @@
         <v>11</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>17</v>
@@ -1694,19 +1793,23 @@
       <c r="I27" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E28" s="10" t="b">
         <v>0</v>
@@ -1723,19 +1826,23 @@
       <c r="I28" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E29" s="10" t="b">
         <v>0</v>
@@ -1752,19 +1859,23 @@
       <c r="I29" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E30" s="10" t="b">
         <v>0</v>
@@ -1781,22 +1892,26 @@
       <c r="I30" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E31" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>11</v>
@@ -1805,13 +1920,17 @@
         <v>11</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B32" s="15"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -1821,7 +1940,7 @@
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="10" t="s">
         <v>80</v>
       </c>
@@ -1842,6 +1961,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:I3" xr:uid="{F7F5A349-55E4-8F43-8F27-625AD0C634D5}">
+    <sortState ref="A4:I31">
+      <sortCondition ref="C3:C31"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="C2:D2"/>
